--- a/四下/密碼學/A6409001_邱郁涵_密碼學作業_.xlsx
+++ b/四下/密碼學/A6409001_邱郁涵_密碼學作業_.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\功課\密碼學\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\檔案\PccuHW\四下\密碼學\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B496526A-A15C-4C28-BB62-DE2085FE883B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1A2A60-F6C0-453E-9ED8-8C1E2D8842F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="-110" windowWidth="18380" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="109">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,78 @@
   </si>
   <si>
     <t>when I in worry or in doubt run in circles scream and shout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">程式碼: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/QINGSHURUNINDEXINGMING/PccuHW/blob/master/%E5%9B%9B%E4%B8%8B/%E5%AF%86%E7%A2%BC%E5%AD%B8/%E5%AF%86%E7%A2%BC%E5%AD%B8%E4%BD%9C%E6%A5%AD2/%E5%AF%86%E7%A2%BC%E5%AD%B8%E4%BD%9C%E6%A5%AD2/%E5%AF%86%E7%A2%BC%E5%AD%B8%E4%BD%9C%E6%A5%AD2.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">展示: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include &lt;iostream&gt;</t>
+  </si>
+  <si>
+    <t>#include &lt;string&gt;</t>
+  </si>
+  <si>
+    <t>using namespace std;</t>
+  </si>
+  <si>
+    <t>int main()</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>int type, key;</t>
+  </si>
+  <si>
+    <t>string s1;</t>
+  </si>
+  <si>
+    <t>cout &lt;&lt; "Encoding ( please press 1 ) or decoding ( please press 2 ) ?: ", cin &gt;&gt; type, cout &lt;&lt; endl;</t>
+  </si>
+  <si>
+    <t>cout &lt;&lt; "Please enter the key: ", cin &gt;&gt; key, cout &lt;&lt; endl;</t>
+  </si>
+  <si>
+    <t>cin.ignore(1000, '\n');</t>
+  </si>
+  <si>
+    <t>cout &lt;&lt; "Please enter the string ( Plaintext with lowercase and ciphertext with uppercase ) : ", getline(cin, s1);</t>
+  </si>
+  <si>
+    <t>if (type==1)</t>
+  </si>
+  <si>
+    <t>cout &lt;&lt; "\nEncoding is : ";</t>
+  </si>
+  <si>
+    <t>for (int i = 0; i &lt; s1.length(); i++) cout &lt;&lt; char((((s1[i] - 'a') + key + 26) % 26) + 'A');</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>else if (type==2)</t>
+  </si>
+  <si>
+    <t>cout &lt;&lt; "\nDecoding is : ";</t>
+  </si>
+  <si>
+    <t>for (int i = 0; i &lt; s1.length(); i++) cout &lt;&lt; char((((s1[i] - 'A') - key + 26) % 26) + 'a');</t>
+  </si>
+  <si>
+    <t>cout &lt;&lt; endl;</t>
+  </si>
+  <si>
+    <t>手寫1, 2題</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +491,21 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -519,10 +606,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -548,9 +636,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -806,6 +897,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>505588</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="圖片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12C0A8B-3447-46AF-9946-07F086AFE5E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="62121"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10617200" y="552450"/>
+          <a:ext cx="7211188" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -831,7 +971,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -881,7 +1021,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -931,7 +1071,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -952,6 +1092,398 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247932</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA670CD-C5F1-4E30-84D7-75AB4F3368D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="12522201"/>
+          <a:ext cx="5835932" cy="1689099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>241591</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>107951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9556AF6B-E7B4-4689-A4E8-C0625D055FC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676401" y="14363701"/>
+          <a:ext cx="5829590" cy="1581150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267B216B-E898-423C-84C4-83EE6C5E96D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1022350" y="11874500"/>
+          <a:ext cx="660400" cy="387350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線單箭頭接點 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC0CE2D7-3DB1-41E7-805C-B967ECBA006B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="12261850"/>
+          <a:ext cx="6127750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F64678-66F0-429C-9636-759A8C40E685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9391650" y="88900"/>
+          <a:ext cx="914400" cy="387350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線單箭頭接點 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F663A91C-2837-4AC3-B97A-70E0BB4CA371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9848850" y="476250"/>
+          <a:ext cx="4394200" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線單箭頭接點 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3A9163-8996-4B5E-9CB0-EDE2688C4651}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9848850" y="476250"/>
+          <a:ext cx="2590800" cy="2717800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2163,10 +2695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3D81C6-18E2-47CC-9B62-A23E48E59366}">
-  <dimension ref="A2:S66"/>
+  <dimension ref="A2:S99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2174,6 +2706,9 @@
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H2" s="12">
         <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
@@ -4333,7 +4868,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:18" x14ac:dyDescent="0.3">
       <c r="I65" s="7"/>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
@@ -4345,7 +4880,13 @@
       <c r="Q65" s="13"/>
       <c r="R65" s="13"/>
     </row>
-    <row r="66" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C66" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="I66" s="7"/>
       <c r="J66" s="18"/>
       <c r="K66" s="16"/>
@@ -4357,10 +4898,133 @@
       <c r="Q66" s="16"/>
       <c r="R66" s="16"/>
     </row>
+    <row r="68" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="O69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="O70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="O71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="O73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="O74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="P75" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="P76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="P78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="P80" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P82" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P84" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="Q88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="Q89" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P92" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="Q94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="Q95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P96" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="P98" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O99" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D66" r:id="rId1" xr:uid="{90A7132A-F52C-48C9-92F2-843CC5916E9E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>